--- a/swertres/results_filter_gap_excel_0_17.xlsx
+++ b/swertres/results_filter_gap_excel_0_17.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00721656"/>
+        <fgColor rgb="00723136"/>
       </patternFill>
     </fill>
   </fills>
